--- a/app/config/tables/MORLIST/forms/MORLIST/MORLIST.xlsx
+++ b/app/config/tables/MORLIST/forms/MORLIST/MORLIST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EB78CB-50BE-4888-908E-04F1363B2EF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9092E196-1C13-4A17-9D76-A08C655E43D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>setting_name</t>
   </si>
@@ -167,9 +167,6 @@
     <t>TABNOME</t>
   </si>
   <si>
-    <t>AMO</t>
-  </si>
-  <si>
     <t>MOR</t>
   </si>
   <si>
@@ -179,25 +176,10 @@
     <t>GRUPO</t>
   </si>
   <si>
-    <t>DATASAIDA</t>
-  </si>
-  <si>
-    <t>FAMMUDONDE</t>
-  </si>
-  <si>
-    <t>REGDAIMOR</t>
-  </si>
-  <si>
-    <t>COORN</t>
-  </si>
-  <si>
-    <t>COORW</t>
-  </si>
-  <si>
-    <t>NOFOGAO</t>
-  </si>
-  <si>
     <t>MORLIST</t>
+  </si>
+  <si>
+    <t>REGNOME</t>
   </si>
 </sst>
 </file>
@@ -573,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -613,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,11 +667,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,26 +744,30 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
+      <c r="F7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -791,84 +777,24 @@
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -964,11 +890,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +938,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B4" t="s">
@@ -1038,102 +964,36 @@
         <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>48</v>
+      <c r="A8" t="s">
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MORLIST/forms/MORLIST/MORLIST.xlsx
+++ b/app/config/tables/MORLIST/forms/MORLIST/MORLIST.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9092E196-1C13-4A17-9D76-A08C655E43D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB1FD8E-0E71-45C4-BAFA-0BE2509DA197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>setting_name</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>REGNOME</t>
+  </si>
+  <si>
+    <t>AMOSTRA</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -667,11 +670,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,8 +796,18 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -890,11 +903,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,6 +1005,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="A2"/>

--- a/app/config/tables/MORLIST/forms/MORLIST/MORLIST.xlsx
+++ b/app/config/tables/MORLIST/forms/MORLIST/MORLIST.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB1FD8E-0E71-45C4-BAFA-0BE2509DA197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96E5D35-37F0-4FDB-B4D8-339D22BCC818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -905,9 +905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -951,11 +951,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
+      <c r="A4" t="s">
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -963,10 +963,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -974,50 +974,50 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>47</v>
+      <c r="A7" t="s">
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>49</v>
+      <c r="A8" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
+      <c r="A9" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
